--- a/data/spreadsheets/2025/week2.xlsx
+++ b/data/spreadsheets/2025/week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/892d7993c2952521/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4043D3A2-F984-4EAA-9330-135868C9EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{07BCC59A-1E26-4F1F-91DD-81ACA89B7DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3630,6 +3630,11 @@
     <xf numFmtId="0" fontId="72" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3653,11 +3658,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5223,7 +5223,7 @@
   <dimension ref="A2:AH727"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
@@ -5242,27 +5242,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="15" customHeight="1">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
-      <c r="S2" s="335"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
@@ -5300,27 +5300,27 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="336" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
-      <c r="H4" s="335"/>
-      <c r="I4" s="335"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="335"/>
-      <c r="L4" s="335"/>
-      <c r="M4" s="335"/>
-      <c r="N4" s="335"/>
-      <c r="O4" s="335"/>
-      <c r="P4" s="335"/>
-      <c r="Q4" s="335"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="335"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
@@ -5804,7 +5804,7 @@
       <c r="A14" s="303" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="330" t="s">
+      <c r="B14" s="333" t="s">
         <v>415</v>
       </c>
       <c r="C14" s="142">
@@ -5888,7 +5888,7 @@
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="331"/>
+      <c r="B15" s="334"/>
       <c r="C15" s="29"/>
       <c r="D15" s="34"/>
       <c r="E15" s="36"/>
@@ -7909,7 +7909,9 @@
       <c r="B51" s="30"/>
       <c r="C51" s="28"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="37"/>
+      <c r="E51" s="30">
+        <v>2</v>
+      </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -7959,7 +7961,7 @@
       <c r="D52" s="34">
         <v>16</v>
       </c>
-      <c r="E52" s="150"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="34">
         <v>14</v>
       </c>
@@ -8028,7 +8030,7 @@
       <c r="B53" s="25"/>
       <c r="C53" s="35"/>
       <c r="D53" s="57"/>
-      <c r="E53" s="63"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
@@ -8047,7 +8049,7 @@
       <c r="U53" s="323"/>
       <c r="V53" s="94"/>
       <c r="W53" s="323"/>
-      <c r="X53" s="339"/>
+      <c r="X53" s="330"/>
       <c r="Y53" s="25"/>
       <c r="Z53" s="93"/>
       <c r="AA53" s="109"/>
@@ -8064,7 +8066,7 @@
       <c r="B54" s="30"/>
       <c r="C54" s="28"/>
       <c r="D54" s="33"/>
-      <c r="E54" s="37"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
@@ -8104,7 +8106,9 @@
       <c r="D55" s="34">
         <v>15</v>
       </c>
-      <c r="E55" s="150"/>
+      <c r="E55" s="31">
+        <v>16</v>
+      </c>
       <c r="F55" s="34">
         <v>16</v>
       </c>
@@ -8185,7 +8189,7 @@
       <c r="B56" s="30"/>
       <c r="C56" s="28"/>
       <c r="D56" s="33"/>
-      <c r="E56" s="37"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
@@ -8230,7 +8234,9 @@
       <c r="D57" s="34">
         <v>14</v>
       </c>
-      <c r="E57" s="150"/>
+      <c r="E57" s="31">
+        <v>4</v>
+      </c>
       <c r="F57" s="34">
         <v>11</v>
       </c>
@@ -8309,7 +8315,7 @@
       <c r="B58" s="30"/>
       <c r="C58" s="28"/>
       <c r="D58" s="33"/>
-      <c r="E58" s="37"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
@@ -8354,7 +8360,9 @@
       <c r="D59" s="34">
         <v>13</v>
       </c>
-      <c r="E59" s="150"/>
+      <c r="E59" s="31">
+        <v>11</v>
+      </c>
       <c r="F59" s="34">
         <v>15</v>
       </c>
@@ -8433,7 +8441,7 @@
       <c r="B60" s="30"/>
       <c r="C60" s="28"/>
       <c r="D60" s="33"/>
-      <c r="E60" s="37"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
@@ -8476,7 +8484,9 @@
       <c r="D61" s="34">
         <v>12</v>
       </c>
-      <c r="E61" s="150"/>
+      <c r="E61" s="31">
+        <v>12</v>
+      </c>
       <c r="F61" s="34">
         <v>12</v>
       </c>
@@ -8559,7 +8569,7 @@
       <c r="D62" s="33">
         <v>1</v>
       </c>
-      <c r="E62" s="144"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33">
@@ -8616,7 +8626,9 @@
         <v>1</v>
       </c>
       <c r="D63" s="34"/>
-      <c r="E63" s="36"/>
+      <c r="E63" s="31">
+        <v>6</v>
+      </c>
       <c r="F63" s="34">
         <v>3</v>
       </c>
@@ -8683,7 +8695,9 @@
         <v>5</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="37"/>
+      <c r="E64" s="30">
+        <v>7</v>
+      </c>
       <c r="F64" s="33">
         <v>10</v>
       </c>
@@ -8762,7 +8776,7 @@
       <c r="D65" s="34">
         <v>11</v>
       </c>
-      <c r="E65" s="150"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
@@ -8809,7 +8823,9 @@
       <c r="D66" s="33">
         <v>2</v>
       </c>
-      <c r="E66" s="144"/>
+      <c r="E66" s="30">
+        <v>15</v>
+      </c>
       <c r="F66" s="33">
         <v>9</v>
       </c>
@@ -8890,7 +8906,7 @@
       <c r="B67" s="31"/>
       <c r="C67" s="29"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="36"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -8929,7 +8945,7 @@
       <c r="B68" s="30"/>
       <c r="C68" s="28"/>
       <c r="D68" s="33"/>
-      <c r="E68" s="37"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -8976,7 +8992,9 @@
       <c r="D69" s="34">
         <v>10</v>
       </c>
-      <c r="E69" s="150"/>
+      <c r="E69" s="31">
+        <v>5</v>
+      </c>
       <c r="F69" s="34">
         <v>2</v>
       </c>
@@ -9055,7 +9073,9 @@
         <v>10</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="37"/>
+      <c r="E70" s="30">
+        <v>13</v>
+      </c>
       <c r="F70" s="33">
         <v>13</v>
       </c>
@@ -9136,7 +9156,7 @@
       <c r="D71" s="34">
         <v>4</v>
       </c>
-      <c r="E71" s="150"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -9173,7 +9193,7 @@
       <c r="B72" s="141"/>
       <c r="C72" s="28"/>
       <c r="D72" s="33"/>
-      <c r="E72" s="144"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
@@ -9214,7 +9234,9 @@
       <c r="D73" s="34">
         <v>3</v>
       </c>
-      <c r="E73" s="36"/>
+      <c r="E73" s="31">
+        <v>14</v>
+      </c>
       <c r="F73" s="34">
         <v>7</v>
       </c>
@@ -9291,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="144"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33">
@@ -9354,7 +9376,9 @@
       <c r="D75" s="34">
         <v>5</v>
       </c>
-      <c r="E75" s="36"/>
+      <c r="E75" s="31">
+        <v>9</v>
+      </c>
       <c r="F75" s="34">
         <v>4</v>
       </c>
@@ -9407,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="37"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33">
         <v>4</v>
@@ -9470,7 +9494,9 @@
       <c r="D77" s="34">
         <v>9</v>
       </c>
-      <c r="E77" s="150"/>
+      <c r="E77" s="31">
+        <v>1</v>
+      </c>
       <c r="F77" s="34">
         <v>1</v>
       </c>
@@ -9521,7 +9547,7 @@
       <c r="B78" s="141"/>
       <c r="C78" s="28"/>
       <c r="D78" s="33"/>
-      <c r="E78" s="144"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
@@ -9564,7 +9590,9 @@
       <c r="D79" s="34">
         <v>8</v>
       </c>
-      <c r="E79" s="36"/>
+      <c r="E79" s="31">
+        <v>3</v>
+      </c>
       <c r="F79" s="34">
         <v>5</v>
       </c>
@@ -9657,7 +9685,7 @@
       <c r="U80" s="323"/>
       <c r="V80" s="323"/>
       <c r="W80" s="323"/>
-      <c r="X80" s="340"/>
+      <c r="X80" s="331"/>
       <c r="Y80" s="323"/>
       <c r="Z80" s="93"/>
       <c r="AA80" s="132"/>
@@ -9675,7 +9703,9 @@
       <c r="D81" s="34">
         <v>7</v>
       </c>
-      <c r="E81" s="36"/>
+      <c r="E81" s="31">
+        <v>10</v>
+      </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34">
         <v>1</v>
@@ -9714,7 +9744,7 @@
         <v>7</v>
       </c>
       <c r="W81" s="74"/>
-      <c r="X81" s="341">
+      <c r="X81" s="332">
         <v>8</v>
       </c>
       <c r="Y81" s="74"/>
@@ -9734,7 +9764,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="34"/>
-      <c r="E82" s="150"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="34">
         <v>6</v>
       </c>
@@ -9793,7 +9823,7 @@
       <c r="D83" s="33">
         <v>6</v>
       </c>
-      <c r="E83" s="37"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="33">
         <v>8</v>
       </c>
@@ -9868,7 +9898,9 @@
       <c r="B84" s="147"/>
       <c r="C84" s="29"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="150"/>
+      <c r="E84" s="31">
+        <v>8</v>
+      </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
@@ -9938,7 +9970,7 @@
       </c>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="1"/>
@@ -11758,7 +11790,7 @@
       <c r="A137" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="330" t="s">
+      <c r="B137" s="333" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="142"/>
@@ -11795,7 +11827,7 @@
       <c r="A138" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="336"/>
+      <c r="B138" s="339"/>
       <c r="C138" s="29"/>
       <c r="D138" s="34"/>
       <c r="E138" s="36"/>
@@ -13206,7 +13238,7 @@
       <c r="A178" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B178" s="330" t="s">
+      <c r="B178" s="333" t="s">
         <v>64</v>
       </c>
       <c r="C178" s="143"/>
@@ -13242,7 +13274,7 @@
       <c r="A179" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B179" s="336"/>
+      <c r="B179" s="339"/>
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="36"/>
@@ -14417,7 +14449,7 @@
       <c r="A215" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B215" s="330" t="s">
+      <c r="B215" s="333" t="s">
         <v>65</v>
       </c>
       <c r="C215" s="142"/>
@@ -14454,7 +14486,7 @@
       <c r="A216" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="336"/>
+      <c r="B216" s="339"/>
       <c r="C216" s="29"/>
       <c r="D216" s="34"/>
       <c r="E216" s="36"/>
@@ -15804,7 +15836,7 @@
       <c r="A254" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="330" t="s">
+      <c r="B254" s="333" t="s">
         <v>64</v>
       </c>
       <c r="C254" s="142"/>
@@ -15841,7 +15873,7 @@
       <c r="A255" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B255" s="332"/>
+      <c r="B255" s="335"/>
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
       <c r="E255" s="36"/>
@@ -31944,27 +31976,27 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1"/>
     <row r="2" spans="1:31" ht="15" customHeight="1">
-      <c r="A2" s="333"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
-      <c r="S2" s="335"/>
-      <c r="T2" s="335"/>
-      <c r="U2" s="335"/>
+      <c r="A2" s="336"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
+      <c r="T2" s="338"/>
+      <c r="U2" s="338"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
@@ -32000,27 +32032,27 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1">
-      <c r="A4" s="333"/>
-      <c r="B4" s="335"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
-      <c r="H4" s="335"/>
-      <c r="I4" s="335"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="335"/>
-      <c r="L4" s="335"/>
-      <c r="M4" s="335"/>
-      <c r="N4" s="335"/>
-      <c r="O4" s="335"/>
-      <c r="P4" s="335"/>
-      <c r="Q4" s="335"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="335"/>
-      <c r="T4" s="335"/>
-      <c r="U4" s="335"/>
+      <c r="A4" s="336"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -32329,7 +32361,7 @@
     </row>
     <row r="15" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="330"/>
+      <c r="B15" s="333"/>
       <c r="C15" s="28"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -32362,7 +32394,7 @@
     </row>
     <row r="16" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="331"/>
+      <c r="B16" s="334"/>
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -36220,7 +36252,7 @@
     </row>
     <row r="140" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="330"/>
+      <c r="B140" s="333"/>
       <c r="C140" s="28"/>
       <c r="D140" s="33"/>
       <c r="E140" s="37"/>
@@ -36250,7 +36282,7 @@
     </row>
     <row r="141" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="7"/>
-      <c r="B141" s="336"/>
+      <c r="B141" s="339"/>
       <c r="C141" s="29"/>
       <c r="D141" s="34"/>
       <c r="E141" s="36"/>
@@ -37498,7 +37530,7 @@
     </row>
     <row r="181" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="330"/>
+      <c r="B181" s="333"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="37"/>
@@ -37528,7 +37560,7 @@
     </row>
     <row r="182" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="7"/>
-      <c r="B182" s="336"/>
+      <c r="B182" s="339"/>
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="36"/>
@@ -38611,7 +38643,7 @@
     </row>
     <row r="218" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="330"/>
+      <c r="B218" s="333"/>
       <c r="C218" s="28"/>
       <c r="D218" s="33"/>
       <c r="E218" s="37"/>
@@ -38641,7 +38673,7 @@
     </row>
     <row r="219" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="7"/>
-      <c r="B219" s="336"/>
+      <c r="B219" s="339"/>
       <c r="C219" s="29"/>
       <c r="D219" s="34"/>
       <c r="E219" s="36"/>
@@ -39781,7 +39813,7 @@
     </row>
     <row r="255" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="330"/>
+      <c r="B255" s="333"/>
       <c r="C255" s="28"/>
       <c r="D255" s="33"/>
       <c r="E255" s="37"/>
@@ -39811,7 +39843,7 @@
     </row>
     <row r="256" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="7"/>
-      <c r="B256" s="332"/>
+      <c r="B256" s="335"/>
       <c r="C256" s="29"/>
       <c r="D256" s="34"/>
       <c r="E256" s="36"/>
@@ -43564,7 +43596,7 @@
     </row>
     <row r="377" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A377" s="9"/>
-      <c r="B377" s="330"/>
+      <c r="B377" s="333"/>
       <c r="C377" s="28"/>
       <c r="D377" s="33"/>
       <c r="E377" s="37"/>
@@ -43598,7 +43630,7 @@
     </row>
     <row r="378" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A378" s="7"/>
-      <c r="B378" s="336"/>
+      <c r="B378" s="339"/>
       <c r="C378" s="29"/>
       <c r="D378" s="34"/>
       <c r="E378" s="36"/>
@@ -53195,7 +53227,7 @@
     </row>
     <row r="700" spans="1:29" ht="15" customHeight="1">
       <c r="A700" s="9"/>
-      <c r="B700" s="337"/>
+      <c r="B700" s="340"/>
       <c r="C700" s="28"/>
       <c r="D700" s="33"/>
       <c r="E700" s="37"/>
@@ -53226,7 +53258,7 @@
     </row>
     <row r="701" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A701" s="7"/>
-      <c r="B701" s="338"/>
+      <c r="B701" s="341"/>
       <c r="C701" s="29"/>
       <c r="D701" s="34"/>
       <c r="E701" s="36"/>
@@ -53676,7 +53708,7 @@
     </row>
     <row r="716" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A716" s="6"/>
-      <c r="B716" s="337"/>
+      <c r="B716" s="340"/>
       <c r="C716" s="28"/>
       <c r="D716" s="33"/>
       <c r="E716" s="37"/>
@@ -53704,7 +53736,7 @@
     </row>
     <row r="717" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A717" s="114"/>
-      <c r="B717" s="338"/>
+      <c r="B717" s="341"/>
       <c r="C717" s="29"/>
       <c r="D717" s="34"/>
       <c r="E717" s="36"/>
